--- a/03 - Exercícios/PROJETO/Superior/Formulários de Avaliação.xlsx
+++ b/03 - Exercícios/PROJETO/Superior/Formulários de Avaliação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsjo\Google Drive\Material de Aula\WEB\Aulas\03 - Exercícios\PROJETO\Superior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{17F13D19-C10E-4BF7-88FC-F183B17A06A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6D867552-A76C-4AD7-B567-259CBE11FEFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15255" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Pts</t>
   </si>
@@ -229,91 +229,22 @@
     <t>nerdex.ga</t>
   </si>
   <si>
-    <t>alguns links não funcionando -0,25</t>
-  </si>
-  <si>
-    <t>carrinho ok</t>
-  </si>
-  <si>
-    <t>não finaliza compra -1</t>
-  </si>
-  <si>
     <t>Raymison/David</t>
   </si>
   <si>
     <t>vendesearte.surge.sh</t>
   </si>
   <si>
-    <t>menu não permanece em todas as páginas - 0,5</t>
-  </si>
-  <si>
-    <t>aceita adicionar sem qtde: -0,25</t>
-  </si>
-  <si>
-    <t>sem identificacao da página: 0,25</t>
-  </si>
-  <si>
-    <t>sem validacao de formularios: 0,25</t>
-  </si>
-  <si>
-    <t>sem explicacao de funcionamento da carrinho</t>
-  </si>
-  <si>
-    <t>finalizar compra ok, sem interacao com usuario -0,25</t>
-  </si>
-  <si>
-    <t>carrinho ok, não verifica itens repetidos, sem total</t>
-  </si>
-  <si>
     <t>Eder/Eduardo Galaxe</t>
   </si>
   <si>
     <t>http://edugalaxeifam.000webhostapp.com/web%20com%20carrinho/index.html</t>
   </si>
   <si>
-    <t>interface não responsiva</t>
-  </si>
-  <si>
-    <t>sem divisao de mais vendidos/destaque</t>
-  </si>
-  <si>
-    <t>sem vaidacao de formulario</t>
-  </si>
-  <si>
-    <t>sem opcao de ver carrinho de qq lugar</t>
-  </si>
-  <si>
-    <t>sem usar bootstrap</t>
-  </si>
-  <si>
-    <t>sem finalizar compra</t>
-  </si>
-  <si>
-    <t>não usou array para montar carrinho na sessao, usou uma variavel para cada produto</t>
-  </si>
-  <si>
     <t>http://carlosmaciel.000webhostapp.com/Projeto_2018_WEB/public_html/index.html</t>
   </si>
   <si>
-    <t>não valida qtde para adicionar o carrinho</t>
-  </si>
-  <si>
-    <t>sem total de produtod</t>
-  </si>
-  <si>
-    <t>layout confuso e não apdronizado</t>
-  </si>
-  <si>
-    <t>finalizar compra incompleta</t>
-  </si>
-  <si>
-    <t>não considera qtde do produto ao adicionar ao carrnho</t>
-  </si>
-  <si>
     <t>carlos/jhonatas ezequiel</t>
-  </si>
-  <si>
-    <t>hospedagem com erro, iframe não carregando no servidor</t>
   </si>
 </sst>
 </file>
@@ -598,21 +529,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -766,6 +682,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -773,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -802,49 +727,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,7 +796,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,6 +834,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1285,8 +1213,8 @@
   </sheetPr>
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,171 +1225,193 @@
     <col min="7" max="7" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="74.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="78.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="30"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="M5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="C6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="17"/>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>4</v>
+      </c>
+      <c r="H6" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="I6" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="L6" s="16">
+        <v>3</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>60</v>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.75</v>
       </c>
       <c r="N7" s="6"/>
     </row>
@@ -1469,84 +1419,116 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>61</v>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
       </c>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>62</v>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="47">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.5</v>
       </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="29">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>63</v>
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.75</v>
       </c>
       <c r="N10" s="6"/>
     </row>
@@ -1554,123 +1536,158 @@
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>64</v>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
       </c>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="7">
         <f>SUM(D6:D11)</f>
         <v>10</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="E12" s="8">
+        <f>SUM(E6:E11)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F12" s="8">
+        <f>SUM(F6:F11)</f>
+        <v>6.75</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G6:G11)</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H6:H11)</f>
+        <v>9</v>
+      </c>
+      <c r="I12" s="8">
+        <f>SUM(I6:I11)</f>
+        <v>5.75</v>
+      </c>
+      <c r="J12" s="8">
+        <f>SUM(J6:J11)</f>
+        <v>9</v>
+      </c>
+      <c r="K12" s="8">
+        <f>SUM(K6:K11)</f>
+        <v>8.25</v>
+      </c>
+      <c r="L12" s="8">
+        <f>SUM(L6:L11)</f>
+        <v>7</v>
+      </c>
+      <c r="M12" s="8">
+        <f>SUM(M6:M11)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N12" s="9"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
-        <v>1</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="2:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1682,14 +1699,14 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1701,16 +1718,16 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="2:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>3</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1722,16 +1739,16 @@
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>4</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1743,19 +1760,19 @@
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="39">
+      <c r="B21" s="38">
         <v>5</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="41">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20"/>
+      <c r="D21" s="40">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="26"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1764,10 +1781,10 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1779,16 +1796,16 @@
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>6</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="3">
         <v>0.5</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1800,16 +1817,16 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>7</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>0.5</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1821,16 +1838,16 @@
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>8</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1842,16 +1859,16 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1863,24 +1880,24 @@
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="7">
         <f>SUM(D16:D26)</f>
         <v>10</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1896,9 +1913,12 @@
     <hyperlink ref="F5" r:id="rId1" display="http://eccommerce.surge.sh/Index.html" xr:uid="{CEF32333-D840-4788-9C60-98AAB67ED911}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{DA807696-E9A8-4F6E-9329-5FFF93F9BB28}"/>
     <hyperlink ref="L5" r:id="rId3" xr:uid="{4CAA66D2-9D18-4809-BD96-C5CF00113E7F}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{2998DF1D-5E90-4CC1-986A-FD148F70899B}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{9ED00540-8390-461C-8BFB-A40FD419DEC1}"/>
+    <hyperlink ref="M5" r:id="rId6" xr:uid="{DDCF3117-16C0-46FA-A7A2-93DDDC374219}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
 </worksheet>
 </file>
 
